--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X37 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X37 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,37 +135,398 @@
     <t>Avg EDFR</t>
   </si>
   <si>
-    <t>max</t>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
+    <t>105w, submax</t>
+  </si>
+  <si>
+    <t>120w</t>
   </si>
   <si>
     <t>submax 2</t>
   </si>
   <si>
-    <t>105w, submax</t>
+    <t>max</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,20 +534,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +844,1164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.46</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.93</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="842866146"/>
+        <c:axId val="576163774"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="842866146"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576163774"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="576163774"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842866146"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604520</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3073400" y="10515600"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,21 +2285,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -531,7 +2321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -590,57 +2380,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.15973379629629628</v>
+        <v>0.159733796296296</v>
       </c>
       <c r="C6">
         <v>71</v>
@@ -688,12 +2478,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.15984953703703705</v>
+        <v>0.159849537037037</v>
       </c>
       <c r="C7">
         <v>72</v>
@@ -741,12 +2531,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.15996527777777778</v>
+        <v>0.159965277777778</v>
       </c>
       <c r="C8">
         <v>76</v>
@@ -755,7 +2545,7 @@
         <v>64</v>
       </c>
       <c r="E8">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="F8">
         <v>3.26</v>
@@ -794,15 +2584,15 @@
         <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.16008101851851853</v>
+        <v>0.160081018518519</v>
       </c>
       <c r="C9">
         <v>77</v>
@@ -850,12 +2640,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16019675925925925</v>
+        <v>0.160196759259259</v>
       </c>
       <c r="C10">
         <v>78</v>
@@ -864,7 +2654,7 @@
         <v>64</v>
       </c>
       <c r="E10">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="F10">
         <v>3.31</v>
@@ -903,9 +2693,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
         <v>0.1603125</v>
@@ -956,12 +2746,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.16042824074074075</v>
+        <v>0.160428240740741</v>
       </c>
       <c r="C12">
         <v>87</v>
@@ -1009,12 +2799,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.1605439814814815</v>
+        <v>0.160543981481481</v>
       </c>
       <c r="C13">
         <v>76</v>
@@ -1062,12 +2852,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.16065972222222222</v>
+        <v>0.160659722222222</v>
       </c>
       <c r="C14">
         <v>83</v>
@@ -1115,12 +2905,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.16077546296296297</v>
+        <v>0.160775462962963</v>
       </c>
       <c r="C15">
         <v>87</v>
@@ -1168,12 +2958,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.16089120370370372</v>
+        <v>0.160891203703704</v>
       </c>
       <c r="C16">
         <v>83</v>
@@ -1221,12 +3011,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.16100694444444444</v>
+        <v>0.161006944444444</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -1235,7 +3025,7 @@
         <v>63</v>
       </c>
       <c r="E17">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F17">
         <v>3.34</v>
@@ -1274,72 +3064,72 @@
         <v>47</v>
       </c>
       <c r="U17">
-        <f>AVERAGE(C6:C17)</f>
-        <v>79.416666666666671</v>
+        <f t="shared" ref="U17:AI17" si="0">AVERAGE(C6:C17)</f>
+        <v>79.4166666666667</v>
       </c>
       <c r="V17">
-        <f>AVERAGE(D6:D17)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="W17">
-        <f>AVERAGE(E6:E17)</f>
+        <f t="shared" si="0"/>
         <v>5.15</v>
       </c>
       <c r="X17">
-        <f>AVERAGE(F6:F17)</f>
-        <v>3.3716666666666675</v>
+        <f t="shared" si="0"/>
+        <v>3.37166666666667</v>
       </c>
       <c r="Y17">
-        <f>AVERAGE(G6:G17)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="Z17">
-        <f>AVERAGE(H6:H17)</f>
+        <f t="shared" si="0"/>
         <v>403.25</v>
       </c>
       <c r="AA17">
-        <f>AVERAGE(I6:I17)</f>
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
       <c r="AB17">
-        <f>AVERAGE(J6:J17)</f>
+        <f t="shared" si="0"/>
         <v>101.5</v>
       </c>
       <c r="AC17">
-        <f>AVERAGE(K6:K17)</f>
-        <v>63.916666666666664</v>
+        <f t="shared" si="0"/>
+        <v>63.9166666666667</v>
       </c>
       <c r="AD17">
-        <f>AVERAGE(L6:L17)</f>
-        <v>100.83333333333333</v>
+        <f t="shared" si="0"/>
+        <v>100.833333333333</v>
       </c>
       <c r="AE17">
-        <f>AVERAGE(M6:M17)</f>
-        <v>1089.9166666666667</v>
+        <f t="shared" si="0"/>
+        <v>1089.91666666667</v>
       </c>
       <c r="AF17">
-        <f>AVERAGE(N6:N17)</f>
+        <f t="shared" si="0"/>
         <v>1664</v>
       </c>
       <c r="AG17">
-        <f>AVERAGE(O6:O17)</f>
-        <v>3.2358333333333338</v>
+        <f t="shared" si="0"/>
+        <v>3.23583333333333</v>
       </c>
       <c r="AH17">
-        <f>AVERAGE(P6:P17)</f>
+        <f t="shared" si="0"/>
         <v>106.25</v>
       </c>
       <c r="AI17">
-        <f>AVERAGE(Q6:Q17)</f>
-        <v>44.916666666666664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>44.9166666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.16112268518518519</v>
+        <v>0.161122685185185</v>
       </c>
       <c r="C18">
         <v>75</v>
@@ -1387,12 +3177,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.16123842592592594</v>
+        <v>0.161238425925926</v>
       </c>
       <c r="C19">
         <v>78</v>
@@ -1440,12 +3230,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.16135416666666666</v>
+        <v>0.161354166666667</v>
       </c>
       <c r="C20">
         <v>76</v>
@@ -1454,7 +3244,7 @@
         <v>62</v>
       </c>
       <c r="E20">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="F20">
         <v>3.15</v>
@@ -1493,12 +3283,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.16146990740740741</v>
+        <v>0.161469907407407</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -1546,12 +3336,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.16158564814814816</v>
+        <v>0.161585648148148</v>
       </c>
       <c r="C22">
         <v>71</v>
@@ -1599,12 +3389,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.16170138888888888</v>
+        <v>0.161701388888889</v>
       </c>
       <c r="C23">
         <v>86</v>
@@ -1652,15 +3442,15 @@
         <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.16181712962962963</v>
+        <v>0.16181712962963</v>
       </c>
       <c r="C24">
         <v>101</v>
@@ -1699,7 +3489,7 @@
         <v>1153</v>
       </c>
       <c r="O24">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="P24">
         <v>94</v>
@@ -1708,12 +3498,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.16193287037037038</v>
+        <v>0.16193287037037</v>
       </c>
       <c r="C25">
         <v>102</v>
@@ -1725,7 +3515,7 @@
         <v>7.41</v>
       </c>
       <c r="F25">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="G25">
         <v>65</v>
@@ -1761,12 +3551,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.1620486111111111</v>
+        <v>0.162048611111111</v>
       </c>
       <c r="C26">
         <v>106</v>
@@ -1778,7 +3568,7 @@
         <v>7.79</v>
       </c>
       <c r="F26">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="G26">
         <v>67</v>
@@ -1805,7 +3595,7 @@
         <v>1092</v>
       </c>
       <c r="O26">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="P26">
         <v>115</v>
@@ -1814,12 +3604,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.16216435185185185</v>
+        <v>0.162164351851852</v>
       </c>
       <c r="C27">
         <v>106</v>
@@ -1867,12 +3657,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.1622800925925926</v>
+        <v>0.162280092592593</v>
       </c>
       <c r="C28">
         <v>101</v>
@@ -1884,7 +3674,7 @@
         <v>7.73</v>
       </c>
       <c r="F28">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="G28">
         <v>69</v>
@@ -1911,7 +3701,7 @@
         <v>1100</v>
       </c>
       <c r="O28">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="P28">
         <v>140</v>
@@ -1920,12 +3710,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.16239583333333332</v>
+        <v>0.162395833333333</v>
       </c>
       <c r="C29">
         <v>107</v>
@@ -1973,12 +3763,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.16251157407407407</v>
+        <v>0.162511574074074</v>
       </c>
       <c r="C30">
         <v>110</v>
@@ -2026,12 +3816,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.16262731481481482</v>
+        <v>0.162627314814815</v>
       </c>
       <c r="C31">
         <v>110</v>
@@ -2079,12 +3869,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.16274305555555554</v>
+        <v>0.162743055555556</v>
       </c>
       <c r="C32">
         <v>110</v>
@@ -2132,12 +3922,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.16285879629629629</v>
+        <v>0.162858796296296</v>
       </c>
       <c r="C33">
         <v>111</v>
@@ -2146,7 +3936,7 @@
         <v>80</v>
       </c>
       <c r="E33">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="F33">
         <v>5.87</v>
@@ -2185,12 +3975,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.16297453703703704</v>
+        <v>0.162974537037037</v>
       </c>
       <c r="C34">
         <v>112</v>
@@ -2238,12 +4028,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.16309027777777776</v>
+        <v>0.163090277777778</v>
       </c>
       <c r="C35">
         <v>113</v>
@@ -2291,12 +4081,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.16320601851851851</v>
+        <v>0.163206018518519</v>
       </c>
       <c r="C36">
         <v>114</v>
@@ -2344,12 +4134,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.16332175925925926</v>
+        <v>0.163321759259259</v>
       </c>
       <c r="C37">
         <v>113</v>
@@ -2358,7 +4148,7 @@
         <v>81</v>
       </c>
       <c r="E37">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="F37">
         <v>6.03</v>
@@ -2397,12 +4187,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.16343749999999999</v>
+        <v>0.1634375</v>
       </c>
       <c r="C38">
         <v>110</v>
@@ -2411,7 +4201,7 @@
         <v>78</v>
       </c>
       <c r="E38">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="F38">
         <v>5.7</v>
@@ -2450,12 +4240,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.16355324074074074</v>
+        <v>0.163553240740741</v>
       </c>
       <c r="C39">
         <v>116</v>
@@ -2503,15 +4293,15 @@
         <v>44</v>
       </c>
       <c r="S39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.16366898148148148</v>
+        <v>0.163668981481481</v>
       </c>
       <c r="C40">
         <v>116</v>
@@ -2559,12 +4349,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.16378472222222221</v>
+        <v>0.163784722222222</v>
       </c>
       <c r="C41">
         <v>123</v>
@@ -2573,7 +4363,7 @@
         <v>76</v>
       </c>
       <c r="E41">
-        <v>9.4600000000000009</v>
+        <v>9.46</v>
       </c>
       <c r="F41">
         <v>6.2</v>
@@ -2612,12 +4402,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.16390046296296296</v>
+        <v>0.163900462962963</v>
       </c>
       <c r="C42">
         <v>127</v>
@@ -2665,12 +4455,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.16401620370370371</v>
+        <v>0.164016203703704</v>
       </c>
       <c r="C43">
         <v>129</v>
@@ -2718,12 +4508,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.16413194444444446</v>
+        <v>0.164131944444444</v>
       </c>
       <c r="C44">
         <v>132</v>
@@ -2771,75 +4561,75 @@
         <v>40</v>
       </c>
       <c r="S44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="U44">
         <f>AVERAGE(C41:C44)</f>
         <v>127.75</v>
       </c>
       <c r="V44">
-        <f t="shared" ref="V44:AI44" si="0">AVERAGE(D41:D44)</f>
+        <f t="shared" ref="V44:AI44" si="1">AVERAGE(D41:D44)</f>
         <v>79</v>
       </c>
       <c r="W44">
-        <f t="shared" si="0"/>
-        <v>10.200000000000001</v>
+        <f t="shared" si="1"/>
+        <v>10.2</v>
       </c>
       <c r="X44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.68</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.25</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>244.75</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>217.75</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>547.25</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>836.25</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.41</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121.5</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.25</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.16424768518518518</v>
+        <v>0.164247685185185</v>
       </c>
       <c r="C45">
         <v>135</v>
@@ -2887,12 +4677,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.16436342592592593</v>
+        <v>0.164363425925926</v>
       </c>
       <c r="C46">
         <v>142</v>
@@ -2940,12 +4730,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.16447916666666665</v>
+        <v>0.164479166666667</v>
       </c>
       <c r="C47">
         <v>143</v>
@@ -2993,12 +4783,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.16459490740740743</v>
+        <v>0.164594907407407</v>
       </c>
       <c r="C48">
         <v>144</v>
@@ -3046,12 +4836,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.16471064814814815</v>
+        <v>0.164710648148148</v>
       </c>
       <c r="C49">
         <v>147</v>
@@ -3063,7 +4853,7 @@
         <v>12.67</v>
       </c>
       <c r="F49">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="G49">
         <v>73</v>
@@ -3099,12 +4889,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.1648263888888889</v>
+        <v>0.164826388888889</v>
       </c>
       <c r="C50">
         <v>153</v>
@@ -3143,7 +4933,7 @@
         <v>650</v>
       </c>
       <c r="O50">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="P50">
         <v>116</v>
@@ -3152,15 +4942,15 @@
         <v>43</v>
       </c>
       <c r="S50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.16494212962962962</v>
+        <v>0.16494212962963</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -3199,7 +4989,7 @@
         <v>645</v>
       </c>
       <c r="O51">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="P51">
         <v>93</v>
@@ -3208,12 +4998,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.16505787037037037</v>
+        <v>0.16505787037037</v>
       </c>
       <c r="C52">
         <v>162</v>
@@ -3225,7 +5015,7 @@
         <v>13.4</v>
       </c>
       <c r="F52">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="G52">
         <v>70</v>
@@ -3261,75 +5051,75 @@
         <v>47</v>
       </c>
       <c r="S52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U52">
-        <f>AVERAGE(C50:C52)</f>
+        <f t="shared" ref="U52:AI52" si="2">AVERAGE(C50:C52)</f>
         <v>158</v>
       </c>
       <c r="V52">
-        <f>AVERAGE(D50:D52)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="W52">
-        <f>AVERAGE(E50:E52)</f>
-        <v>13.219999999999999</v>
+        <f t="shared" si="2"/>
+        <v>13.22</v>
       </c>
       <c r="X52">
-        <f>AVERAGE(F50:F52)</f>
-        <v>8.6600000000000019</v>
+        <f t="shared" si="2"/>
+        <v>8.66</v>
       </c>
       <c r="Y52">
-        <f>AVERAGE(G50:G52)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="Z52">
-        <f>AVERAGE(H50:H52)</f>
-        <v>213.33333333333334</v>
+        <f t="shared" si="2"/>
+        <v>213.333333333333</v>
       </c>
       <c r="AA52">
-        <f>AVERAGE(I50:I52)</f>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="AB52">
-        <f>AVERAGE(J50:J52)</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="AC52">
-        <f>AVERAGE(K50:K52)</f>
-        <v>63.666666666666664</v>
+        <f t="shared" si="2"/>
+        <v>63.6666666666667</v>
       </c>
       <c r="AD52">
-        <f>AVERAGE(L50:L52)</f>
-        <v>118.33333333333333</v>
+        <f t="shared" si="2"/>
+        <v>118.333333333333</v>
       </c>
       <c r="AE52">
-        <f>AVERAGE(M50:M52)</f>
+        <f t="shared" si="2"/>
         <v>421</v>
       </c>
       <c r="AF52">
-        <f>AVERAGE(N50:N52)</f>
+        <f t="shared" si="2"/>
         <v>643</v>
       </c>
       <c r="AG52">
-        <f>AVERAGE(O50:O52)</f>
+        <f t="shared" si="2"/>
         <v>8.31</v>
       </c>
       <c r="AH52">
-        <f>AVERAGE(P50:P52)</f>
-        <v>100.33333333333333</v>
+        <f t="shared" si="2"/>
+        <v>100.333333333333</v>
       </c>
       <c r="AI52">
-        <f>AVERAGE(Q50:Q52)</f>
-        <v>46.333333333333336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>46.3333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.16517361111111112</v>
+        <v>0.165173611111111</v>
       </c>
       <c r="C53">
         <v>163</v>
@@ -3380,72 +5170,72 @@
         <v>45</v>
       </c>
       <c r="U53">
-        <f>AVERAGE(C50:C53)</f>
+        <f t="shared" ref="U53:AI53" si="3">AVERAGE(C50:C53)</f>
         <v>159.25</v>
       </c>
       <c r="V53">
-        <f>AVERAGE(D50:D53)</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="W53">
-        <f>AVERAGE(E50:E53)</f>
-        <v>13.324999999999999</v>
+        <f t="shared" si="3"/>
+        <v>13.325</v>
       </c>
       <c r="X53">
-        <f>AVERAGE(F50:F53)</f>
-        <v>8.7275000000000009</v>
+        <f t="shared" si="3"/>
+        <v>8.7275</v>
       </c>
       <c r="Y53">
-        <f>AVERAGE(G50:G53)</f>
+        <f t="shared" si="3"/>
         <v>70.25</v>
       </c>
       <c r="Z53">
-        <f>AVERAGE(H50:H53)</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="AA53">
-        <f>AVERAGE(I50:I53)</f>
+        <f t="shared" si="3"/>
         <v>216.75</v>
       </c>
       <c r="AB53">
-        <f>AVERAGE(J50:J53)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="AC53">
-        <f>AVERAGE(K50:K53)</f>
+        <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
       <c r="AD53">
-        <f>AVERAGE(L50:L53)</f>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="AE53">
-        <f>AVERAGE(M50:M53)</f>
+        <f t="shared" si="3"/>
         <v>417.75</v>
       </c>
       <c r="AF53">
-        <f>AVERAGE(N50:N53)</f>
+        <f t="shared" si="3"/>
         <v>638</v>
       </c>
       <c r="AG53">
-        <f>AVERAGE(O50:O53)</f>
+        <f t="shared" si="3"/>
         <v>8.375</v>
       </c>
       <c r="AH53">
-        <f>AVERAGE(P50:P53)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AI53">
-        <f>AVERAGE(Q50:Q53)</f>
+        <f t="shared" si="3"/>
         <v>46.25</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.16528935185185187</v>
+        <v>0.165289351851852</v>
       </c>
       <c r="C54">
         <v>164</v>
@@ -3493,12 +5283,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.16540509259259259</v>
+        <v>0.165405092592593</v>
       </c>
       <c r="C55">
         <v>149</v>
@@ -3546,15 +5336,15 @@
         <v>37</v>
       </c>
       <c r="S55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.16552083333333334</v>
+        <v>0.165520833333333</v>
       </c>
       <c r="C56">
         <v>138</v>
@@ -3602,12 +5392,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.16563657407407409</v>
+        <v>0.165636574074074</v>
       </c>
       <c r="C57">
         <v>130</v>
@@ -3655,12 +5445,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.16575231481481481</v>
+        <v>0.165752314814815</v>
       </c>
       <c r="C58">
         <v>148</v>
@@ -3672,7 +5462,7 @@
         <v>13.43</v>
       </c>
       <c r="F58">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="G58">
         <v>72</v>
@@ -3708,36 +5498,46 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X37 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X37 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\28Sept2013_Xining_Physioflow_X33X37_repeatX15\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13653AF5-3CB9-4911-8D07-BC110C146090}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,14 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,351 +190,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,322 +212,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -861,7 +254,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,6 +279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -911,173 +304,170 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="53"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,13 +485,13 @@
                   <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.98</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.06</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.45</c:v>
@@ -1122,7 +512,7 @@
                   <c:v>5.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.71</c:v>
@@ -1131,7 +521,7 @@
                   <c:v>4.91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.81</c:v>
+                  <c:v>4.8099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.62</c:v>
@@ -1170,7 +560,7 @@
                   <c:v>8.74</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.96</c:v>
+                  <c:v>8.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>9.08</c:v>
@@ -1182,10 +572,10 @@
                   <c:v>9.65</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.21</c:v>
+                  <c:v>9.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.7</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>9.17</c:v>
@@ -1194,7 +584,7 @@
                   <c:v>9.11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.46</c:v>
+                  <c:v>9.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9.85</c:v>
@@ -1251,6 +641,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF87-4BB3-9E93-0976AC49C7E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1260,7 +655,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="842866146"/>
         <c:axId val="576163774"/>
@@ -1272,6 +666,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1305,6 +700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="576163774"/>
@@ -1363,6 +759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="842866146"/>
@@ -1403,6 +800,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1970,7 +1368,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1984,14 +1382,20 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3073400" y="10515600"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2285,21 +1689,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2425,9 +1829,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
         <v>0.159733796296296</v>
@@ -2478,9 +1882,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
         <v>0.159849537037037</v>
@@ -2531,9 +1935,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
         <v>0.159965277777778</v>
@@ -2545,7 +1949,7 @@
         <v>64</v>
       </c>
       <c r="E8">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F8">
         <v>3.26</v>
@@ -2587,9 +1991,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
         <v>0.160081018518519</v>
@@ -2640,9 +2044,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
         <v>0.160196759259259</v>
@@ -2654,7 +2058,7 @@
         <v>64</v>
       </c>
       <c r="E10">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F10">
         <v>3.31</v>
@@ -2693,9 +2097,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
         <v>0.1603125</v>
@@ -2746,9 +2150,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
         <v>0.160428240740741</v>
@@ -2799,9 +2203,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
         <v>0.160543981481481</v>
@@ -2852,9 +2256,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
         <v>0.160659722222222</v>
@@ -2905,12 +2309,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.160775462962963</v>
+        <v>0.16077546296296299</v>
       </c>
       <c r="C15">
         <v>87</v>
@@ -2958,12 +2362,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.160891203703704</v>
+        <v>0.16089120370370399</v>
       </c>
       <c r="C16">
         <v>83</v>
@@ -3013,10 +2417,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.161006944444444</v>
+        <v>0.16100694444444399</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -3025,7 +2429,7 @@
         <v>63</v>
       </c>
       <c r="E17">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F17">
         <v>3.34</v>
@@ -3065,7 +2469,7 @@
       </c>
       <c r="U17">
         <f t="shared" ref="U17:AI17" si="0">AVERAGE(C6:C17)</f>
-        <v>79.4166666666667</v>
+        <v>79.416666666666671</v>
       </c>
       <c r="V17">
         <f t="shared" si="0"/>
@@ -3077,7 +2481,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="0"/>
-        <v>3.37166666666667</v>
+        <v>3.3716666666666675</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
@@ -3097,15 +2501,15 @@
       </c>
       <c r="AC17">
         <f t="shared" si="0"/>
-        <v>63.9166666666667</v>
+        <v>63.916666666666664</v>
       </c>
       <c r="AD17">
         <f t="shared" si="0"/>
-        <v>100.833333333333</v>
+        <v>100.83333333333333</v>
       </c>
       <c r="AE17">
         <f t="shared" si="0"/>
-        <v>1089.91666666667</v>
+        <v>1089.9166666666667</v>
       </c>
       <c r="AF17">
         <f t="shared" si="0"/>
@@ -3113,7 +2517,7 @@
       </c>
       <c r="AG17">
         <f t="shared" si="0"/>
-        <v>3.23583333333333</v>
+        <v>3.2358333333333338</v>
       </c>
       <c r="AH17">
         <f t="shared" si="0"/>
@@ -3121,15 +2525,15 @@
       </c>
       <c r="AI17">
         <f t="shared" si="0"/>
-        <v>44.9166666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>44.916666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.161122685185185</v>
+        <v>0.16112268518518499</v>
       </c>
       <c r="C18">
         <v>75</v>
@@ -3177,12 +2581,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.161238425925926</v>
+        <v>0.16123842592592599</v>
       </c>
       <c r="C19">
         <v>78</v>
@@ -3230,12 +2634,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.161354166666667</v>
+        <v>0.16135416666666699</v>
       </c>
       <c r="C20">
         <v>76</v>
@@ -3244,7 +2648,7 @@
         <v>62</v>
       </c>
       <c r="E20">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F20">
         <v>3.15</v>
@@ -3283,12 +2687,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.161469907407407</v>
+        <v>0.16146990740740699</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -3336,12 +2740,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.161585648148148</v>
+        <v>0.16158564814814799</v>
       </c>
       <c r="C22">
         <v>71</v>
@@ -3389,12 +2793,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.161701388888889</v>
+        <v>0.16170138888888899</v>
       </c>
       <c r="C23">
         <v>86</v>
@@ -3445,12 +2849,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.16181712962963</v>
+        <v>0.16181712962962999</v>
       </c>
       <c r="C24">
         <v>101</v>
@@ -3489,7 +2893,7 @@
         <v>1153</v>
       </c>
       <c r="O24">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P24">
         <v>94</v>
@@ -3498,12 +2902,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.16193287037037</v>
+        <v>0.16193287037036999</v>
       </c>
       <c r="C25">
         <v>102</v>
@@ -3515,7 +2919,7 @@
         <v>7.41</v>
       </c>
       <c r="F25">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G25">
         <v>65</v>
@@ -3551,12 +2955,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.162048611111111</v>
+        <v>0.16204861111111099</v>
       </c>
       <c r="C26">
         <v>106</v>
@@ -3568,7 +2972,7 @@
         <v>7.79</v>
       </c>
       <c r="F26">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G26">
         <v>67</v>
@@ -3595,7 +2999,7 @@
         <v>1092</v>
       </c>
       <c r="O26">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P26">
         <v>115</v>
@@ -3604,12 +3008,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.162164351851852</v>
+        <v>0.16216435185185199</v>
       </c>
       <c r="C27">
         <v>106</v>
@@ -3657,12 +3061,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.162280092592593</v>
+        <v>0.16228009259259299</v>
       </c>
       <c r="C28">
         <v>101</v>
@@ -3674,7 +3078,7 @@
         <v>7.73</v>
       </c>
       <c r="F28">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="G28">
         <v>69</v>
@@ -3701,7 +3105,7 @@
         <v>1100</v>
       </c>
       <c r="O28">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="P28">
         <v>140</v>
@@ -3710,12 +3114,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.162395833333333</v>
+        <v>0.16239583333333299</v>
       </c>
       <c r="C29">
         <v>107</v>
@@ -3763,12 +3167,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.162511574074074</v>
+        <v>0.16251157407407399</v>
       </c>
       <c r="C30">
         <v>110</v>
@@ -3816,12 +3220,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.162627314814815</v>
+        <v>0.16262731481481499</v>
       </c>
       <c r="C31">
         <v>110</v>
@@ -3869,12 +3273,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.162743055555556</v>
+        <v>0.16274305555555599</v>
       </c>
       <c r="C32">
         <v>110</v>
@@ -3922,12 +3326,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.162858796296296</v>
+        <v>0.16285879629629599</v>
       </c>
       <c r="C33">
         <v>111</v>
@@ -3936,7 +3340,7 @@
         <v>80</v>
       </c>
       <c r="E33">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="F33">
         <v>5.87</v>
@@ -3975,12 +3379,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.162974537037037</v>
+        <v>0.16297453703703699</v>
       </c>
       <c r="C34">
         <v>112</v>
@@ -4028,12 +3432,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.163090277777778</v>
+        <v>0.16309027777777799</v>
       </c>
       <c r="C35">
         <v>113</v>
@@ -4081,12 +3485,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.163206018518519</v>
+        <v>0.16320601851851901</v>
       </c>
       <c r="C36">
         <v>114</v>
@@ -4134,12 +3538,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.163321759259259</v>
+        <v>0.16332175925925899</v>
       </c>
       <c r="C37">
         <v>113</v>
@@ -4148,7 +3552,7 @@
         <v>81</v>
       </c>
       <c r="E37">
-        <v>9.21</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="F37">
         <v>6.03</v>
@@ -4187,12 +3591,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.1634375</v>
+        <v>0.16343750000000001</v>
       </c>
       <c r="C38">
         <v>110</v>
@@ -4201,7 +3605,7 @@
         <v>78</v>
       </c>
       <c r="E38">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F38">
         <v>5.7</v>
@@ -4240,12 +3644,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.163553240740741</v>
+        <v>0.16355324074074101</v>
       </c>
       <c r="C39">
         <v>116</v>
@@ -4296,12 +3700,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.163668981481481</v>
+        <v>0.16366898148148101</v>
       </c>
       <c r="C40">
         <v>116</v>
@@ -4349,12 +3753,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.163784722222222</v>
+        <v>0.16378472222222201</v>
       </c>
       <c r="C41">
         <v>123</v>
@@ -4363,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="E41">
-        <v>9.46</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F41">
         <v>6.2</v>
@@ -4402,12 +3806,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.163900462962963</v>
+        <v>0.16390046296296301</v>
       </c>
       <c r="C42">
         <v>127</v>
@@ -4455,12 +3859,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.164016203703704</v>
+        <v>0.16401620370370401</v>
       </c>
       <c r="C43">
         <v>129</v>
@@ -4510,10 +3914,10 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.164131944444444</v>
+        <v>0.16413194444444401</v>
       </c>
       <c r="C44">
         <v>132</v>
@@ -4573,7 +3977,7 @@
       </c>
       <c r="W44">
         <f t="shared" si="1"/>
-        <v>10.2</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="X44">
         <f t="shared" si="1"/>
@@ -4624,12 +4028,12 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.164247685185185</v>
+        <v>0.16424768518518501</v>
       </c>
       <c r="C45">
         <v>135</v>
@@ -4677,12 +4081,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.164363425925926</v>
+        <v>0.16436342592592601</v>
       </c>
       <c r="C46">
         <v>142</v>
@@ -4730,12 +4134,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.164479166666667</v>
+        <v>0.16447916666666701</v>
       </c>
       <c r="C47">
         <v>143</v>
@@ -4783,12 +4187,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.164594907407407</v>
+        <v>0.16459490740740701</v>
       </c>
       <c r="C48">
         <v>144</v>
@@ -4836,12 +4240,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.164710648148148</v>
+        <v>0.16471064814814801</v>
       </c>
       <c r="C49">
         <v>147</v>
@@ -4853,7 +4257,7 @@
         <v>12.67</v>
       </c>
       <c r="F49">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G49">
         <v>73</v>
@@ -4889,12 +4293,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.164826388888889</v>
+        <v>0.16482638888888901</v>
       </c>
       <c r="C50">
         <v>153</v>
@@ -4902,7 +4306,7 @@
       <c r="D50">
         <v>85</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>13.07</v>
       </c>
       <c r="F50">
@@ -4933,7 +4337,7 @@
         <v>650</v>
       </c>
       <c r="O50">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="P50">
         <v>116</v>
@@ -4945,12 +4349,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.16494212962963</v>
+        <v>0.16494212962963001</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -4958,7 +4362,7 @@
       <c r="D51">
         <v>82</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>13.19</v>
       </c>
       <c r="F51">
@@ -4989,7 +4393,7 @@
         <v>645</v>
       </c>
       <c r="O51">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="P51">
         <v>93</v>
@@ -5000,10 +4404,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.16505787037037</v>
+        <v>0.16505787037037001</v>
       </c>
       <c r="C52">
         <v>162</v>
@@ -5011,11 +4415,11 @@
       <c r="D52">
         <v>82</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>13.4</v>
       </c>
       <c r="F52">
-        <v>8.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="G52">
         <v>70</v>
@@ -5063,11 +4467,11 @@
       </c>
       <c r="W52">
         <f t="shared" si="2"/>
-        <v>13.22</v>
+        <v>13.219999999999999</v>
       </c>
       <c r="X52">
         <f t="shared" si="2"/>
-        <v>8.66</v>
+        <v>8.6600000000000019</v>
       </c>
       <c r="Y52">
         <f t="shared" si="2"/>
@@ -5075,7 +4479,7 @@
       </c>
       <c r="Z52">
         <f t="shared" si="2"/>
-        <v>213.333333333333</v>
+        <v>213.33333333333334</v>
       </c>
       <c r="AA52">
         <f t="shared" si="2"/>
@@ -5087,11 +4491,11 @@
       </c>
       <c r="AC52">
         <f t="shared" si="2"/>
-        <v>63.6666666666667</v>
+        <v>63.666666666666664</v>
       </c>
       <c r="AD52">
         <f t="shared" si="2"/>
-        <v>118.333333333333</v>
+        <v>118.33333333333333</v>
       </c>
       <c r="AE52">
         <f t="shared" si="2"/>
@@ -5107,19 +4511,19 @@
       </c>
       <c r="AH52">
         <f t="shared" si="2"/>
-        <v>100.333333333333</v>
+        <v>100.33333333333333</v>
       </c>
       <c r="AI52">
         <f t="shared" si="2"/>
-        <v>46.3333333333333</v>
+        <v>46.333333333333336</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.165173611111111</v>
+        <v>0.16517361111111101</v>
       </c>
       <c r="C53">
         <v>163</v>
@@ -5127,7 +4531,7 @@
       <c r="D53">
         <v>83</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>13.64</v>
       </c>
       <c r="F53">
@@ -5179,11 +4583,11 @@
       </c>
       <c r="W53">
         <f t="shared" si="3"/>
-        <v>13.325</v>
+        <v>13.324999999999999</v>
       </c>
       <c r="X53">
         <f t="shared" si="3"/>
-        <v>8.7275</v>
+        <v>8.7275000000000009</v>
       </c>
       <c r="Y53">
         <f t="shared" si="3"/>
@@ -5230,12 +4634,12 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.165289351851852</v>
+        <v>0.16528935185185201</v>
       </c>
       <c r="C54">
         <v>164</v>
@@ -5243,7 +4647,7 @@
       <c r="D54">
         <v>83</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>13.76</v>
       </c>
       <c r="F54">
@@ -5283,12 +4687,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.165405092592593</v>
+        <v>0.16540509259259301</v>
       </c>
       <c r="C55">
         <v>149</v>
@@ -5339,12 +4743,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.165520833333333</v>
+        <v>0.16552083333333301</v>
       </c>
       <c r="C56">
         <v>138</v>
@@ -5392,12 +4796,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.165636574074074</v>
+        <v>0.16563657407407401</v>
       </c>
       <c r="C57">
         <v>130</v>
@@ -5445,9 +4849,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
         <v>0.165752314814815</v>
@@ -5462,7 +4866,7 @@
         <v>13.43</v>
       </c>
       <c r="F58">
-        <v>8.79</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="G58">
         <v>72</v>
@@ -5498,46 +4902,37 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:35">
       <c r="A60" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>